--- a/Base/Backlog_14.xlsx
+++ b/Base/Backlog_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE3EB77-53A6-4717-8B64-65DA220AE0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0738208C-22C4-4ADE-A7C4-8FEE849CFCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
   <si>
     <t>Backlog</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Erick da Silva</t>
   </si>
 </sst>
 </file>
@@ -545,11 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -604,12 +606,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10">
         <v>2025</v>
@@ -639,12 +641,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" s="10">
         <v>2025</v>
@@ -674,12 +676,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10">
         <v>2025</v>
@@ -709,12 +711,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" s="10">
         <v>2025</v>
@@ -744,12 +746,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10">
         <v>2025</v>
@@ -779,12 +781,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10">
         <v>2025</v>
@@ -814,12 +816,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10">
         <v>2025</v>
@@ -849,12 +851,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10">
         <v>2025</v>
@@ -884,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -919,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -954,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
@@ -989,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>4</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>4</v>
       </c>
@@ -1590,16 +1592,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J22" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-    <filterColumn colId="7">
-      <filters>
-        <dateGroupItem year="2025" month="3" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Pendente"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
       <sortCondition ref="B1:B16"/>
     </sortState>
